--- a/bootstrap-5.2.0-examples/Книга1.xlsx
+++ b/bootstrap-5.2.0-examples/Книга1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lestnicy\bootstrap-5.2.0-examples\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9795"/>
+    <workbookView windowWidth="21600" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -159,7 +154,7 @@
     <t>навигационная панель статична</t>
   </si>
   <si>
-    <t>offcanvas</t>
+    <t>off canvas</t>
   </si>
   <si>
     <t>оффканвы</t>
@@ -213,8 +208,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +223,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -254,9 +585,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -268,17 +841,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -536,22 +1153,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="52.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -812,5 +1429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>